--- a/biology/Botanique/Asplenium_obovatum/Asplenium_obovatum.xlsx
+++ b/biology/Botanique/Asplenium_obovatum/Asplenium_obovatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asplenium obovatum, de noms communs Doradille obovale, Doradille à feuilles ovales ou Doradille à feuilles obovales est une espèce de fougères du genre Asplenium et de la famille des Aspleniaceae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asplenium obovatum, de noms communs Doradille obovale, Doradille à feuilles ovales ou Doradille à feuilles obovales est une espèce de fougères du genre Asplenium et de la famille des Aspleniaceae. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du mot grec asplénon signifiant « remède pour la rate » ; certaines de ces fougères ont été utilisées par les Grecs contre les maladies de la rate.
-Obov vient du latin ; il signifie ovale, à gros bout vers l’extérieur ; obovatus signifie ovale, obovale[2].
+Obov vient du latin ; il signifie ovale, à gros bout vers l’extérieur ; obovatus signifie ovale, obovale.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette fougère est hémicryptophyte, c'est-à-dire que c'est une plante vivace dont les bourgeons persistant durant la mauvaise saison sont situés au niveau du sol. Les parties aériennes (feuilles) meurent donc entièrement durant la mauvaise saison. Ces feuilles sont très petites (taille d'un pouce) et de couleur vert clair[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette fougère est hémicryptophyte, c'est-à-dire que c'est une plante vivace dont les bourgeons persistant durant la mauvaise saison sont situés au niveau du sol. Les parties aériennes (feuilles) meurent donc entièrement durant la mauvaise saison. Ces feuilles sont très petites (taille d'un pouce) et de couleur vert clair.
 La doradille obovale a une sexualité monoïque.
 La pollinisation se fait par l'eau.
-Les graines ou fruits sont disséminés par le vent[4].
+Les graines ou fruits sont disséminés par le vent.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asplenium obovatum est originaire d'Europe[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asplenium obovatum est originaire d'Europe.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La doradille obovale pousse de préférence dans les sols peu profonds (rochers ...) mais bien arrosés, au côté des mousses et autres fougères[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La doradille obovale pousse de préférence dans les sols peu profonds (rochers ...) mais bien arrosés, au côté des mousses et autres fougères.
 </t>
         </is>
       </c>
@@ -641,13 +661,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sous-espèces
-Asplenium obovatum subsp. billotii (F. W. Schultz) O. Bolos, Vigo, Masalles &amp; J. M. Ninot
-Asplenium obovatum subsp. obovatum
-Variétés
-Asplenium obovatum var. deltoideum Demiriz, Viane &amp; Reichst
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asplenium obovatum subsp. billotii (F. W. Schultz) O. Bolos, Vigo, Masalles &amp; J. M. Ninot
+Asplenium obovatum subsp. obovatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Asplenium_obovatum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asplenium_obovatum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Asplenium obovatum var. deltoideum Demiriz, Viane &amp; Reichst
 Asplenium obovatum var. ibericum Rasbach, K. Rasbach, Reichst., Viane &amp; Bennert
-Asplenium obovatum var. protobillotii Demiriz, Viane &amp; Reichst[5]</t>
+Asplenium obovatum var. protobillotii Demiriz, Viane &amp; Reichst</t>
         </is>
       </c>
     </row>
